--- a/source/master.xlsx
+++ b/source/master.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vigneshv/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDAC7D5-E55B-2648-BACC-B26E79DF6D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Tamil" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="English" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Upcoming" sheetId="3" r:id="rId6"/>
+    <sheet name="Tamil" sheetId="1" r:id="rId1"/>
+    <sheet name="English" sheetId="2" r:id="rId2"/>
+    <sheet name="Upcoming" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tamil!$A$1:$Y$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tamil!$A$1:$Y$287</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="562">
   <si>
     <t>Book Name</t>
   </si>
@@ -53,6 +63,9 @@
     <t>கவிஞர் நா.முத்துக்குமார்</t>
   </si>
   <si>
+    <t>YES</t>
+  </si>
+  <si>
     <t>Aadhithiyan Kalivarthan</t>
   </si>
   <si>
@@ -69,9 +82,6 @@
   </si>
   <si>
     <t>அபாயம் தொடாதே</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>Anand</t>
@@ -1154,6 +1164,387 @@
   </si>
   <si>
     <t xml:space="preserve">டேவிட் ஸ்மித் </t>
+  </si>
+  <si>
+    <t>நேற்று மனிதர்கள்</t>
+  </si>
+  <si>
+    <t>பிரபஞ்சன்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பாளையங்கோட்டை ஊர் வரலாறு </t>
+  </si>
+  <si>
+    <t xml:space="preserve">தொ பரமசிவம் </t>
+  </si>
+  <si>
+    <t>சி.மோகன் படைப்புகள்</t>
+  </si>
+  <si>
+    <t>மோகன்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">கிராமம் நகரம் மாநகரம்
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">நா முத்துக்குமார் </t>
+  </si>
+  <si>
+    <t>உதய சூரியன்</t>
+  </si>
+  <si>
+    <t>தி. ஜானகிராமன்</t>
+  </si>
+  <si>
+    <t>வில்லோடு வா நிலவே</t>
+  </si>
+  <si>
+    <t>வைரமுத்து</t>
+  </si>
+  <si>
+    <t>பிர்சா முண்டா</t>
+  </si>
+  <si>
+    <t>கே எஸ் சிங்</t>
+  </si>
+  <si>
+    <t>பங்கர் - எங்கட கதைகள்</t>
+  </si>
+  <si>
+    <t>வெற்றிச்செல்வி</t>
+  </si>
+  <si>
+    <t>உலகக் காதல் கதைகள்</t>
+  </si>
+  <si>
+    <t>ந.முருகேச பாண்டியன்</t>
+  </si>
+  <si>
+    <t>பத்து செகண்ட் முத்தம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> சுஜாதா </t>
+  </si>
+  <si>
+    <t>துணையெழுத்து</t>
+  </si>
+  <si>
+    <t>எஸ். ராமகிருஷ்ணன்</t>
+  </si>
+  <si>
+    <t>ஆல்பெர் காம்யு</t>
+  </si>
+  <si>
+    <t>வ.உ.சி நூலகம்</t>
+  </si>
+  <si>
+    <t>பெண் போராளியின் சிறை குறிப்புக்கள்</t>
+  </si>
+  <si>
+    <t>அனுராதா</t>
+  </si>
+  <si>
+    <t>அயலான் அல்பெர் கமுய்</t>
+  </si>
+  <si>
+    <t>அல்பெர் கமுய்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">கி. ராஜநாராயணன்: தேர்ந்தெடுத்த சிறுகதைகள்
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">கி. ராஜநாராயணன்: </t>
+  </si>
+  <si>
+    <t>மாசி வீதியின் கல்சந்துகள்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">சீனு ராமசாமி
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மூன்று ஆண்டுகள் </t>
+  </si>
+  <si>
+    <t>அந்தோன் சேகவ்</t>
+  </si>
+  <si>
+    <t>ஆடு ஜீவிதம்</t>
+  </si>
+  <si>
+    <t>பென்யமின்</t>
+  </si>
+  <si>
+    <t>சிறையில் ஒளிரும் நட்சத்திரங்கள் part1</t>
+  </si>
+  <si>
+    <t>மதுரை நம்பி</t>
+  </si>
+  <si>
+    <t>சிறையில் ஒளிரும் நட்சத்திரங்கள் part2</t>
+  </si>
+  <si>
+    <t>கதைகளில் ஒளிரும் வாழ்க்கை</t>
+  </si>
+  <si>
+    <t>சுகுமாரன்</t>
+  </si>
+  <si>
+    <t>நாளைக்கும் வரும் கிளிகள்</t>
+  </si>
+  <si>
+    <t>கண்டி வீரன்</t>
+  </si>
+  <si>
+    <t>ஷோபா சக்தி</t>
+  </si>
+  <si>
+    <t>விசாவிற்காக காத்திருக்கிறேன்</t>
+  </si>
+  <si>
+    <t>டாக்டர் பி.ஆர். அம்பேத்கர்</t>
+  </si>
+  <si>
+    <t>கண்மணி கமலாவுக்கு</t>
+  </si>
+  <si>
+    <t>புதுமைப்பித்தன்</t>
+  </si>
+  <si>
+    <t>ஆபத்துச் சுவர்கள் இளமை பொங்கு எழுத்துக்கள்</t>
+  </si>
+  <si>
+    <t>ஆல்பர்ட் காம்யு</t>
+  </si>
+  <si>
+    <t>மீட்சி</t>
+  </si>
+  <si>
+    <t>ஒல்கா</t>
+  </si>
+  <si>
+    <t>கடலும் கிழவனும்</t>
+  </si>
+  <si>
+    <t>எர்னஸ்ட் ஹெமிங்வே</t>
+  </si>
+  <si>
+    <t>மூமின்</t>
+  </si>
+  <si>
+    <t>நா. முத்துக்குமார் கவிதைகள்</t>
+  </si>
+  <si>
+    <t>நா. முத்துக்குமார்</t>
+  </si>
+  <si>
+    <t>சனிக்கிழமை ஜீவிகள்</t>
+  </si>
+  <si>
+    <t>குட்டி இளவரசன்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அந்த்வான் து செந்த்-எக்சுபெரி </t>
+  </si>
+  <si>
+    <t>நிரபராதிகளின் காலம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ஸீக்ஃப்ரீட் லென்ஸ் </t>
+  </si>
+  <si>
+    <t>மஞ்சள் மகிமை</t>
+  </si>
+  <si>
+    <t>தொ. பரமசிவன்</t>
+  </si>
+  <si>
+    <t>எது நிற்கும்</t>
+  </si>
+  <si>
+    <t>கரிச்சான் குஞ்சு</t>
+  </si>
+  <si>
+    <t>பிம்பச் சிறை</t>
+  </si>
+  <si>
+    <t>எம்.எஸ்.எஸ். பாண்டியன்</t>
+  </si>
+  <si>
+    <t>பிரமாண்டமும் ஒச்சமும்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பெருமாள் முருகன் </t>
+  </si>
+  <si>
+    <t>அம்மா ஒரு கொலை செய்தாள்</t>
+  </si>
+  <si>
+    <t>ஐந்நூறு கோப்பைத் தகடுகள்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">டெர்லின் ஷர்ட்டும் எட்டு முழ வேட்டியும் அணிந்த மனிதர்" (Terlin Shirtum Ettumuzha Vettiyum Anindha Manidhar) </t>
+  </si>
+  <si>
+    <t>ஜி. நாகராஜன் (G. Nagarajan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">முதல் மனிதன் (Muthal Manithan) </t>
+  </si>
+  <si>
+    <t>ஆல்பர்ட் காம்யு (Albert Camus)</t>
+  </si>
+  <si>
+    <t>அன்பின் நிமித்தங்கள் (Anbin Nimithangal)</t>
+  </si>
+  <si>
+    <t>யாத்ரீ" (Yaathiri)</t>
+  </si>
+  <si>
+    <t>"இங்கிதம் தெரிந்தவர்கள்" (Ingitham Therinthavargal)</t>
+  </si>
+  <si>
+    <t>சுசீ. நடராஜன் (Susi Natarajan)</t>
+  </si>
+  <si>
+    <t>உப பாண்டவம்" (Uba Pandavam)</t>
+  </si>
+  <si>
+    <t>தலையங்கம்  தேர்ந்தெடுக்கப்பட்ட கட்டுரைகள்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"தேன் மிட்டாய்" (Then Mittai) </t>
+  </si>
+  <si>
+    <t>மருதன் (Marudhan)</t>
+  </si>
+  <si>
+    <t>பணம் இன்றி அமையாது உலகு" (Panam Indri Amayathu Ulagu)</t>
+  </si>
+  <si>
+    <t>சோம வள்ளியப்பன் (Soma Valliappan)</t>
+  </si>
+  <si>
+    <t>"EMI இல்லா வாழ்க்கை" (EMI Illa Vaazhkkai)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">இராம. பழனியப்பன் (Irama. Palaniyappan) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"வாசக பருவம்" (Vasaga Paruvam) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ராமகிருஷ்ணன் (S. Ramakrishnan) </t>
+  </si>
+  <si>
+    <t>கால் முளைத்த கதைகள்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">சிரிக்கும் வகுப்பறை" (Sirikkum Vagupparai) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">சிவப்பு மச்சம்" (Sivappu Macham) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">சாய்ந்தாடும் குதிரை" (Sainthadum Kuthirai) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">சோசியல் மீடியா </t>
+  </si>
+  <si>
+    <t>ஆரூர் பாஸ்கர்</t>
+  </si>
+  <si>
+    <t>வாடிவாசல்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">சி.சு. செல்லப்பா (Si. Su. Chellappa) </t>
+  </si>
+  <si>
+    <t>சிற்றன் போக்கு" (Sittan Pokku)</t>
+  </si>
+  <si>
+    <t>தாமிரபரணியில் கொல்லப்படாதவர்கள்" (Thamirabaraniyil Kollappadaathavargal)</t>
+  </si>
+  <si>
+    <t>மாரி செல்வராஜ்</t>
+  </si>
+  <si>
+    <t>பைத்தியக் காலம்</t>
+  </si>
+  <si>
+    <t>நர்சிம்</t>
+  </si>
+  <si>
+    <t>மண் பாரம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">இமையம் </t>
+  </si>
+  <si>
+    <t>யானை டாக்டர்</t>
+  </si>
+  <si>
+    <t>பாப் மார்லி</t>
+  </si>
+  <si>
+    <t>ரவிக்குமார்</t>
+  </si>
+  <si>
+    <t>மால்குடி மனிதர்கள்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ஆர். கே. நாராயணன் </t>
+  </si>
+  <si>
+    <t>வீடியோ மாரியம்மன்</t>
+  </si>
+  <si>
+    <t>வேலா ராமமூர்த்தி கதைகள்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">வேலா ராமமூர்த்தி </t>
+  </si>
+  <si>
+    <t>கதைகளின் கதைகள்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">சு. வெங்கடேசன் </t>
+  </si>
+  <si>
+    <t>ஹிட்லர்</t>
+  </si>
+  <si>
+    <t>நில் கவனி தாக்கு</t>
+  </si>
+  <si>
+    <t>பண்பாட்டின் பலகணி: நீத்தார் சடங்குகள் - கதைகள் - பண்டிகைகள்"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ஸ்டாலின் ராஜாங்கம் </t>
+  </si>
+  <si>
+    <t>தூட்டியின் மகன்</t>
+  </si>
+  <si>
+    <t>தகழி சிவசங்கரப் பிள்ளை</t>
+  </si>
+  <si>
+    <t>மேற்கத்தி கொம்பு மாடுகள்</t>
+  </si>
+  <si>
+    <t>அவள் ஒரு ஆச்சரியக்குறி</t>
+  </si>
+  <si>
+    <t>ஊறு வளர்த்தல் உரி வளைத்தல்</t>
+  </si>
+  <si>
+    <t>குட்டி ரேவதி</t>
+  </si>
+  <si>
+    <t>அப்பா மகன்</t>
   </si>
   <si>
     <t xml:space="preserve">Journey of Civilization Indus to Vaigai </t>
@@ -1330,147 +1721,164 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Montserrat"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Montserrat"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF1F1F1F"/>
       <name val="Montserrat"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Montserrat"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Montserrat"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0A0A0A"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto Mono"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Roboto Mono"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto Mono"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto Mono"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFE06666"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF00FF00"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="&quot;Amazon Ember&quot;"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF007185"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF007185"/>
       <name val="&quot;Amazon Ember&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF007185"/>
       <name val="&quot;Amazon Ember&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1478,7 +1886,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1518,7 +1926,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1532,215 +1946,139 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="47">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD9EAD3"/>
           <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1930,29 +2268,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="E247" sqref="E247"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="52.75"/>
-    <col customWidth="1" min="2" max="2" width="28.13"/>
-    <col customWidth="1" min="3" max="3" width="20.13"/>
-    <col customWidth="1" min="4" max="4" width="14.13"/>
-    <col customWidth="1" min="5" max="5" width="22.13"/>
-    <col customWidth="1" min="6" max="6" width="29.13"/>
-    <col customWidth="1" min="7" max="7" width="26.63"/>
+    <col min="1" max="1" width="82.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.0" customHeight="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1969,7 +2312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1986,7 +2329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1997,47 +2340,47 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="16">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -2048,13 +2391,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="16">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -2065,13 +2408,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -2088,7 +2431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="16">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -2105,7 +2448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -2116,13 +2459,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="16">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -2139,7 +2482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -2156,7 +2499,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="16">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -2173,7 +2516,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2190,7 +2533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="16">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -2201,13 +2544,13 @@
         <v>7</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="16">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -2224,7 +2567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
@@ -2235,13 +2578,13 @@
         <v>7</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="16">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -2258,7 +2601,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
@@ -2275,7 +2618,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
@@ -2292,7 +2635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="5" t="s">
         <v>61</v>
       </c>
@@ -2303,11 +2646,11 @@
         <v>7</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="16">
       <c r="A22" s="5" t="s">
         <v>62</v>
       </c>
@@ -2318,13 +2661,13 @@
         <v>7</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
@@ -2335,13 +2678,13 @@
         <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="3" t="s">
         <v>67</v>
       </c>
@@ -2355,13 +2698,13 @@
         <v>68</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="16">
       <c r="A25" s="3" t="s">
         <v>70</v>
       </c>
@@ -2378,7 +2721,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
@@ -2395,7 +2738,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
@@ -2406,13 +2749,13 @@
         <v>7</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" ht="16">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -2423,13 +2766,13 @@
         <v>7</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" ht="16">
       <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
@@ -2440,13 +2783,13 @@
         <v>7</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" ht="16">
       <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
@@ -2457,13 +2800,13 @@
         <v>7</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" ht="16">
       <c r="A31" s="5" t="s">
         <v>87</v>
       </c>
@@ -2480,7 +2823,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" ht="16">
       <c r="A32" s="5" t="s">
         <v>90</v>
       </c>
@@ -2491,13 +2834,13 @@
         <v>7</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="16">
       <c r="A33" s="5" t="s">
         <v>92</v>
       </c>
@@ -2508,13 +2851,13 @@
         <v>7</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="16">
       <c r="A34" s="5" t="s">
         <v>94</v>
       </c>
@@ -2525,11 +2868,11 @@
         <v>7</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="16">
       <c r="A35" s="5" t="s">
         <v>95</v>
       </c>
@@ -2540,13 +2883,13 @@
         <v>7</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="16">
       <c r="A36" s="5" t="s">
         <v>97</v>
       </c>
@@ -2557,13 +2900,13 @@
         <v>7</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="16">
       <c r="A37" s="3" t="s">
         <v>98</v>
       </c>
@@ -2580,7 +2923,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="16">
       <c r="A38" s="3" t="s">
         <v>100</v>
       </c>
@@ -2597,7 +2940,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="16">
       <c r="A39" s="5" t="s">
         <v>102</v>
       </c>
@@ -2608,13 +2951,13 @@
         <v>7</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="16">
       <c r="A40" s="3" t="s">
         <v>105</v>
       </c>
@@ -2631,7 +2974,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="16">
       <c r="A41" s="3" t="s">
         <v>107</v>
       </c>
@@ -2648,7 +2991,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="16">
       <c r="A42" s="5" t="s">
         <v>110</v>
       </c>
@@ -2659,13 +3002,13 @@
         <v>7</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="16">
       <c r="A43" s="5" t="s">
         <v>112</v>
       </c>
@@ -2676,13 +3019,13 @@
         <v>7</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="16">
       <c r="A44" s="5" t="s">
         <v>114</v>
       </c>
@@ -2697,7 +3040,7 @@
       </c>
       <c r="E44" s="7"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" ht="16">
       <c r="A45" s="3" t="s">
         <v>116</v>
       </c>
@@ -2714,7 +3057,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" ht="16">
       <c r="A46" s="5" t="s">
         <v>119</v>
       </c>
@@ -2725,13 +3068,13 @@
         <v>121</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="16">
       <c r="A47" s="3" t="s">
         <v>123</v>
       </c>
@@ -2742,13 +3085,13 @@
         <v>7</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="16">
       <c r="A48" s="5" t="s">
         <v>125</v>
       </c>
@@ -2759,13 +3102,13 @@
         <v>7</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" ht="16">
       <c r="A49" s="11" t="s">
         <v>127</v>
       </c>
@@ -2776,13 +3119,13 @@
         <v>7</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" ht="16">
       <c r="A50" s="3" t="s">
         <v>129</v>
       </c>
@@ -2797,7 +3140,7 @@
       </c>
       <c r="E50" s="4"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" ht="16">
       <c r="A51" s="5" t="s">
         <v>131</v>
       </c>
@@ -2814,7 +3157,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" ht="16">
       <c r="A52" s="5" t="s">
         <v>134</v>
       </c>
@@ -2825,13 +3168,13 @@
         <v>7</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" ht="16">
       <c r="A53" s="5" t="s">
         <v>136</v>
       </c>
@@ -2848,7 +3191,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" ht="16">
       <c r="A54" s="5" t="s">
         <v>138</v>
       </c>
@@ -2865,7 +3208,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" ht="16">
       <c r="A55" s="3" t="s">
         <v>140</v>
       </c>
@@ -2882,7 +3225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" ht="16">
       <c r="A56" s="5" t="s">
         <v>142</v>
       </c>
@@ -2899,7 +3242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" ht="16">
       <c r="A57" s="5" t="s">
         <v>144</v>
       </c>
@@ -2910,11 +3253,11 @@
         <v>7</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E57" s="7"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" ht="16">
       <c r="A58" s="5" t="s">
         <v>145</v>
       </c>
@@ -2925,13 +3268,13 @@
         <v>7</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" ht="16">
       <c r="A59" s="3" t="s">
         <v>147</v>
       </c>
@@ -2946,7 +3289,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" ht="16">
       <c r="A60" s="3" t="s">
         <v>147</v>
       </c>
@@ -2963,7 +3306,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" ht="16">
       <c r="A61" s="5" t="s">
         <v>151</v>
       </c>
@@ -2974,13 +3317,13 @@
         <v>7</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" ht="16">
       <c r="A62" s="5" t="s">
         <v>154</v>
       </c>
@@ -2991,13 +3334,13 @@
         <v>7</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" ht="16">
       <c r="A63" s="3" t="s">
         <v>155</v>
       </c>
@@ -3014,7 +3357,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" ht="16">
       <c r="A64" s="3" t="s">
         <v>158</v>
       </c>
@@ -3031,7 +3374,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" ht="16">
       <c r="A65" s="3" t="s">
         <v>161</v>
       </c>
@@ -3048,7 +3391,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" ht="16">
       <c r="A66" s="3" t="s">
         <v>162</v>
       </c>
@@ -3065,7 +3408,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" ht="16">
       <c r="A67" s="3" t="s">
         <v>165</v>
       </c>
@@ -3082,7 +3425,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" ht="16">
       <c r="A68" s="3" t="s">
         <v>168</v>
       </c>
@@ -3099,7 +3442,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" ht="16">
       <c r="A69" s="5" t="s">
         <v>169</v>
       </c>
@@ -3116,7 +3459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" ht="16">
       <c r="A70" s="5" t="s">
         <v>171</v>
       </c>
@@ -3133,7 +3476,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" ht="16">
       <c r="A71" s="5" t="s">
         <v>173</v>
       </c>
@@ -3150,7 +3493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" ht="16">
       <c r="A72" s="5" t="s">
         <v>174</v>
       </c>
@@ -3161,13 +3504,13 @@
         <v>7</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" ht="16">
       <c r="A73" s="3" t="s">
         <v>175</v>
       </c>
@@ -3184,7 +3527,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" ht="16">
       <c r="A74" s="5" t="s">
         <v>178</v>
       </c>
@@ -3195,13 +3538,13 @@
         <v>7</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" ht="16">
       <c r="A75" s="5" t="s">
         <v>180</v>
       </c>
@@ -3218,7 +3561,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" ht="16">
       <c r="A76" s="3" t="s">
         <v>183</v>
       </c>
@@ -3233,7 +3576,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" ht="16">
       <c r="A77" s="3" t="s">
         <v>186</v>
       </c>
@@ -3248,7 +3591,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" ht="16">
       <c r="A78" s="5" t="s">
         <v>187</v>
       </c>
@@ -3263,7 +3606,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" ht="16">
       <c r="A79" s="5" t="s">
         <v>189</v>
       </c>
@@ -3278,7 +3621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" ht="16">
       <c r="A80" s="5" t="s">
         <v>191</v>
       </c>
@@ -3287,13 +3630,13 @@
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" ht="16">
       <c r="A81" s="3" t="s">
         <v>194</v>
       </c>
@@ -3308,7 +3651,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" ht="16">
       <c r="A82" s="5" t="s">
         <v>196</v>
       </c>
@@ -3317,13 +3660,13 @@
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" ht="16">
       <c r="A83" s="3" t="s">
         <v>199</v>
       </c>
@@ -3338,12 +3681,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" ht="16">
       <c r="A84" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
@@ -3353,7 +3696,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" ht="16">
       <c r="A85" s="3" t="s">
         <v>203</v>
       </c>
@@ -3368,7 +3711,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" ht="16">
       <c r="A86" s="3" t="s">
         <v>206</v>
       </c>
@@ -3383,11 +3726,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" ht="16">
       <c r="A87" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B87" s="13"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7" t="s">
         <v>172</v>
@@ -3396,21 +3739,21 @@
         <v>208</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="14" t="s">
+    <row r="88" spans="1:5" ht="16">
+      <c r="A88" s="12" t="s">
         <v>209</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="15" t="s">
+    <row r="89" spans="1:5" ht="16">
+      <c r="A89" s="13" t="s">
         <v>210</v>
       </c>
       <c r="B89" s="4"/>
@@ -3422,46 +3765,46 @@
         <v>211</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" ht="16">
       <c r="A90" s="12" t="s">
         <v>212</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" ht="16">
       <c r="A91" s="12" t="s">
         <v>214</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" ht="16">
       <c r="A92" s="12" t="s">
         <v>216</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" ht="16">
       <c r="A93" s="12" t="s">
         <v>217</v>
       </c>
@@ -3474,37 +3817,37 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" ht="16">
       <c r="A94" s="12" t="s">
         <v>218</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" ht="16">
       <c r="A95" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B95" s="13"/>
+      <c r="B95" s="7"/>
       <c r="C95" s="7"/>
-      <c r="D95" s="17" t="s">
-        <v>18</v>
+      <c r="D95" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" ht="16">
       <c r="A96" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B96" s="13"/>
+      <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="4" t="s">
         <v>8</v>
@@ -3513,74 +3856,74 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="18" t="s">
+    <row r="97" spans="1:6" ht="16">
+      <c r="A97" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B97" s="13"/>
+      <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="18" t="s">
+    <row r="98" spans="1:6" ht="16">
+      <c r="A98" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B98" s="13"/>
+      <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="18" t="s">
+    <row r="99" spans="1:6" ht="16">
+      <c r="A99" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B99" s="13"/>
+      <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F99" s="19"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="18" t="s">
+      <c r="F99" s="16"/>
+    </row>
+    <row r="100" spans="1:6" ht="16">
+      <c r="A100" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B100" s="13"/>
+      <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="18" t="s">
+    <row r="101" spans="1:6" ht="16">
+      <c r="A101" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B101" s="13"/>
+      <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="20" t="s">
+    <row r="102" spans="1:6" ht="16">
+      <c r="A102" s="12" t="s">
         <v>226</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -3594,11 +3937,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="18" t="s">
+    <row r="103" spans="1:6" ht="16">
+      <c r="A103" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B103" s="13"/>
+      <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="4" t="s">
         <v>8</v>
@@ -3607,11 +3950,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="18" t="s">
+    <row r="104" spans="1:6" ht="16">
+      <c r="A104" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B104" s="13"/>
+      <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="4" t="s">
         <v>8</v>
@@ -3620,11 +3963,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="18" t="s">
+    <row r="105" spans="1:6" ht="16">
+      <c r="A105" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B105" s="13"/>
+      <c r="B105" s="7"/>
       <c r="C105" s="7" t="s">
         <v>228</v>
       </c>
@@ -3635,34 +3978,34 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="18" t="s">
+    <row r="106" spans="1:6" ht="16">
+      <c r="A106" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B106" s="13"/>
+      <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="18" t="s">
+    <row r="107" spans="1:6" ht="16">
+      <c r="A107" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="13"/>
+      <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="15" t="s">
+    <row r="108" spans="1:6" ht="16">
+      <c r="A108" s="13" t="s">
         <v>233</v>
       </c>
       <c r="B108" s="4"/>
@@ -3670,1036 +4013,1036 @@
       <c r="D108" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="21" t="s">
+      <c r="E108" s="17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="22" t="s">
+    <row r="109" spans="1:6" ht="16">
+      <c r="A109" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="24" t="s">
+      <c r="B109" s="19"/>
+      <c r="C109" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D109" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E109" s="24" t="s">
+      <c r="D109" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="19" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="22" t="s">
+    <row r="110" spans="1:6" ht="16">
+      <c r="A110" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="24" t="s">
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E110" s="24" t="s">
+      <c r="E110" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="22" t="s">
+    <row r="111" spans="1:6" ht="16">
+      <c r="A111" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="24" t="s">
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="24" t="s">
+      <c r="E111" s="19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="22" t="s">
+    <row r="112" spans="1:6" ht="16">
+      <c r="A112" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="24" t="s">
+      <c r="B112" s="19"/>
+      <c r="C112" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D112" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" s="24"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="22" t="s">
+      <c r="D112" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" s="19"/>
+    </row>
+    <row r="113" spans="1:5" ht="16">
+      <c r="A113" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="24" t="s">
+      <c r="B113" s="19"/>
+      <c r="C113" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D113" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="24" t="s">
+      <c r="D113" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="22" t="s">
+    <row r="114" spans="1:5" ht="16">
+      <c r="A114" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="24" t="s">
+      <c r="B114" s="19"/>
+      <c r="C114" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D114" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E114" s="24" t="s">
+      <c r="D114" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="22" t="s">
+    <row r="115" spans="1:5" ht="16">
+      <c r="A115" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E115" s="24" t="s">
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="22" t="s">
+    <row r="116" spans="1:5" ht="16">
+      <c r="A116" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E116" s="24" t="s">
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="22" t="s">
+    <row r="117" spans="1:5" ht="16">
+      <c r="A117" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="B117" s="24" t="s">
+      <c r="B117" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="C117" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D117" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" s="24" t="s">
+      <c r="D117" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="22" t="s">
+    <row r="118" spans="1:5" ht="16">
+      <c r="A118" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="B118" s="23"/>
-      <c r="C118" s="24" t="s">
+      <c r="B118" s="19"/>
+      <c r="C118" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D118" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E118" s="24" t="s">
+      <c r="D118" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="22" t="s">
+    <row r="119" spans="1:5" ht="16">
+      <c r="A119" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B119" s="23"/>
-      <c r="C119" s="24" t="s">
+      <c r="B119" s="19"/>
+      <c r="C119" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D119" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E119" s="24" t="s">
+      <c r="D119" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="22" t="s">
+    <row r="120" spans="1:5" ht="16">
+      <c r="A120" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B120" s="23"/>
-      <c r="C120" s="24" t="s">
+      <c r="B120" s="19"/>
+      <c r="C120" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D120" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E120" s="24" t="s">
+      <c r="D120" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="22" t="s">
+    <row r="121" spans="1:5" ht="16">
+      <c r="A121" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="B121" s="23"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E121" s="24" t="s">
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="22" t="s">
+    <row r="122" spans="1:5" ht="16">
+      <c r="A122" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="B122" s="23"/>
-      <c r="C122" s="24" t="s">
+      <c r="B122" s="19"/>
+      <c r="C122" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D122" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="24" t="s">
+      <c r="D122" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="22" t="s">
+    <row r="123" spans="1:5" ht="16">
+      <c r="A123" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="B123" s="23"/>
-      <c r="C123" s="24" t="s">
+      <c r="B123" s="19"/>
+      <c r="C123" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D123" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="24" t="s">
+      <c r="D123" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="22" t="s">
+    <row r="124" spans="1:5" ht="16">
+      <c r="A124" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="B124" s="23"/>
-      <c r="C124" s="24" t="s">
+      <c r="B124" s="19"/>
+      <c r="C124" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D124" s="24" t="s">
+      <c r="D124" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="24" t="s">
+      <c r="E124" s="19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="22" t="s">
+    <row r="125" spans="1:5" ht="16">
+      <c r="A125" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="B125" s="23"/>
-      <c r="C125" s="24" t="s">
+      <c r="B125" s="19"/>
+      <c r="C125" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D125" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E125" s="24" t="s">
+      <c r="D125" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="22" t="s">
+    <row r="126" spans="1:5" ht="16">
+      <c r="A126" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="B126" s="24" t="s">
+      <c r="B126" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C126" s="24" t="s">
+      <c r="C126" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D126" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E126" s="24" t="s">
+      <c r="D126" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="22" t="s">
+    <row r="127" spans="1:5" ht="16">
+      <c r="A127" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B127" s="24" t="s">
+      <c r="B127" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C127" s="24" t="s">
+      <c r="C127" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D127" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E127" s="24" t="s">
+      <c r="D127" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="22" t="s">
+    <row r="128" spans="1:5" ht="16">
+      <c r="A128" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B128" s="24" t="s">
+      <c r="B128" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C128" s="24" t="s">
+      <c r="C128" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D128" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E128" s="24" t="s">
+      <c r="D128" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="22" t="s">
+    <row r="129" spans="1:5" ht="16">
+      <c r="A129" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="B129" s="24" t="s">
+      <c r="B129" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C129" s="24" t="s">
+      <c r="C129" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D129" s="24" t="s">
+      <c r="D129" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E129" s="24" t="s">
+      <c r="E129" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="22" t="s">
+    <row r="130" spans="1:5" ht="16">
+      <c r="A130" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="B130" s="24" t="s">
+      <c r="B130" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C130" s="24" t="s">
+      <c r="C130" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D130" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" s="24" t="s">
+      <c r="D130" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="22" t="s">
+    <row r="131" spans="1:5" ht="16">
+      <c r="A131" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="B131" s="24" t="s">
+      <c r="B131" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="C131" s="24" t="s">
+      <c r="C131" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D131" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" s="24" t="s">
+      <c r="D131" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="22" t="s">
+    <row r="132" spans="1:5" ht="16">
+      <c r="A132" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="B132" s="25" t="s">
+      <c r="B132" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="C132" s="24" t="s">
+      <c r="C132" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D132" s="24" t="s">
+      <c r="D132" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E132" s="24" t="s">
+      <c r="E132" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="22" t="s">
+    <row r="133" spans="1:5" ht="16">
+      <c r="A133" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="B133" s="24" t="s">
+      <c r="B133" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C133" s="24" t="s">
+      <c r="C133" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D133" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="24" t="s">
+      <c r="D133" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="22" t="s">
+    <row r="134" spans="1:5" ht="16">
+      <c r="A134" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="B134" s="24" t="s">
+      <c r="B134" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C134" s="24" t="s">
+      <c r="C134" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D134" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="24" t="s">
+      <c r="D134" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="22" t="s">
+    <row r="135" spans="1:5" ht="16">
+      <c r="A135" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="B135" s="24" t="s">
+      <c r="B135" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C135" s="24" t="s">
+      <c r="C135" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D135" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E135" s="24" t="s">
+      <c r="D135" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="22" t="s">
+    <row r="136" spans="1:5" ht="16">
+      <c r="A136" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="B136" s="24" t="s">
+      <c r="B136" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C136" s="24" t="s">
+      <c r="C136" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D136" s="24" t="s">
+      <c r="D136" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E136" s="24" t="s">
+      <c r="E136" s="19" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="22" t="s">
+    <row r="137" spans="1:5" ht="16">
+      <c r="A137" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="B137" s="24" t="s">
+      <c r="B137" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C137" s="24" t="s">
+      <c r="C137" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D137" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E137" s="24" t="s">
+      <c r="D137" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="22" t="s">
+    <row r="138" spans="1:5" ht="16">
+      <c r="A138" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="B138" s="24" t="s">
+      <c r="B138" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C138" s="24" t="s">
+      <c r="C138" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D138" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E138" s="24" t="s">
+      <c r="D138" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="19" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="22" t="s">
+    <row r="139" spans="1:5" ht="16">
+      <c r="A139" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="B139" s="24" t="s">
+      <c r="B139" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C139" s="24" t="s">
+      <c r="C139" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D139" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E139" s="24" t="s">
+      <c r="D139" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="22" t="s">
+    <row r="140" spans="1:5" ht="16">
+      <c r="A140" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="B140" s="24" t="s">
+      <c r="B140" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C140" s="24" t="s">
+      <c r="C140" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D140" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E140" s="24" t="s">
+      <c r="D140" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="22" t="s">
+    <row r="141" spans="1:5" ht="16">
+      <c r="A141" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="24" t="s">
+      <c r="B141" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C141" s="24" t="s">
+      <c r="C141" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D141" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E141" s="24" t="s">
+      <c r="D141" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="22" t="s">
+    <row r="142" spans="1:5" ht="16">
+      <c r="A142" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="24" t="s">
+      <c r="B142" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C142" s="24" t="s">
+      <c r="C142" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D142" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E142" s="24" t="s">
+      <c r="D142" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="22" t="s">
+    <row r="143" spans="1:5" ht="16">
+      <c r="A143" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="B143" s="24" t="s">
+      <c r="B143" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C143" s="24" t="s">
+      <c r="C143" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D143" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E143" s="24" t="s">
+      <c r="D143" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="22" t="s">
+    <row r="144" spans="1:5" ht="16">
+      <c r="A144" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="B144" s="24" t="s">
+      <c r="B144" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C144" s="24" t="s">
+      <c r="C144" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D144" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="24" t="s">
+      <c r="D144" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="22" t="s">
+    <row r="145" spans="1:5" ht="16">
+      <c r="A145" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="B145" s="24" t="s">
+      <c r="B145" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C145" s="24" t="s">
+      <c r="C145" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D145" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="24" t="s">
+      <c r="D145" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="22" t="s">
+    <row r="146" spans="1:5" ht="16">
+      <c r="A146" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="B146" s="24" t="s">
+      <c r="B146" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C146" s="24" t="s">
+      <c r="C146" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D146" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E146" s="24" t="s">
+      <c r="D146" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="22" t="s">
+    <row r="147" spans="1:5" ht="16">
+      <c r="A147" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="B147" s="24" t="s">
+      <c r="B147" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C147" s="24" t="s">
+      <c r="C147" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D147" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E147" s="24" t="s">
+      <c r="D147" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="22" t="s">
+    <row r="148" spans="1:5" ht="16">
+      <c r="A148" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="B148" s="24" t="s">
+      <c r="B148" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C148" s="24" t="s">
+      <c r="C148" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D148" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E148" s="24" t="s">
+      <c r="D148" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="22" t="s">
+    <row r="149" spans="1:5" ht="16">
+      <c r="A149" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24" t="s">
+      <c r="B149" s="19"/>
+      <c r="C149" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E149" s="24" t="s">
+      <c r="E149" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="22" t="s">
+    <row r="150" spans="1:5" ht="16">
+      <c r="A150" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="B150" s="24" t="s">
+      <c r="B150" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C150" s="24" t="s">
+      <c r="C150" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D150" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E150" s="24" t="s">
+      <c r="D150" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="22" t="s">
+    <row r="151" spans="1:5" ht="16">
+      <c r="A151" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="B151" s="24" t="s">
+      <c r="B151" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C151" s="24" t="s">
+      <c r="C151" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D151" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E151" s="24" t="s">
+      <c r="D151" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="22" t="s">
+    <row r="152" spans="1:5" ht="16">
+      <c r="A152" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="B152" s="24" t="s">
+      <c r="B152" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C152" s="24" t="s">
+      <c r="C152" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D152" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E152" s="24" t="s">
+      <c r="D152" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="22" t="s">
+    <row r="153" spans="1:5" ht="16">
+      <c r="A153" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="B153" s="24" t="s">
+      <c r="B153" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C153" s="24" t="s">
+      <c r="C153" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D153" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E153" s="24" t="s">
+      <c r="D153" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="22" t="s">
+    <row r="154" spans="1:5" ht="16">
+      <c r="A154" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="B154" s="24" t="s">
+      <c r="B154" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C154" s="24" t="s">
+      <c r="C154" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D154" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E154" s="24" t="s">
+      <c r="D154" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="22" t="s">
+    <row r="155" spans="1:5" ht="16">
+      <c r="A155" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="B155" s="24" t="s">
+      <c r="B155" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C155" s="24" t="s">
+      <c r="C155" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D155" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="24" t="s">
+      <c r="D155" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="22" t="s">
+    <row r="156" spans="1:5" ht="16">
+      <c r="A156" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="B156" s="24" t="s">
+      <c r="B156" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C156" s="24" t="s">
+      <c r="C156" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D156" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="24" t="s">
+      <c r="D156" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="22" t="s">
+    <row r="157" spans="1:5" ht="16">
+      <c r="A157" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="B157" s="24" t="s">
+      <c r="B157" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C157" s="24" t="s">
+      <c r="C157" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D157" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E157" s="24" t="s">
+      <c r="D157" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="22" t="s">
+    <row r="158" spans="1:5" ht="16">
+      <c r="A158" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="B158" s="24" t="s">
+      <c r="B158" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C158" s="24" t="s">
+      <c r="C158" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D158" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E158" s="24" t="s">
+      <c r="D158" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="22" t="s">
+    <row r="159" spans="1:5" ht="16">
+      <c r="A159" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="B159" s="24" t="s">
+      <c r="B159" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C159" s="24" t="s">
+      <c r="C159" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D159" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E159" s="24" t="s">
+      <c r="D159" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="22" t="s">
+    <row r="160" spans="1:5" ht="16">
+      <c r="A160" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="B160" s="24" t="s">
+      <c r="B160" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C160" s="24" t="s">
+      <c r="C160" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D160" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E160" s="24" t="s">
+      <c r="D160" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="22" t="s">
+    <row r="161" spans="1:5" ht="16">
+      <c r="A161" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="B161" s="24" t="s">
+      <c r="B161" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C161" s="24" t="s">
+      <c r="C161" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D161" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E161" s="24" t="s">
+      <c r="D161" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="22" t="s">
+    <row r="162" spans="1:5" ht="16">
+      <c r="A162" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="B162" s="24" t="s">
+      <c r="B162" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C162" s="24" t="s">
+      <c r="C162" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D162" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E162" s="24" t="s">
+      <c r="D162" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="22" t="s">
+    <row r="163" spans="1:5" ht="16">
+      <c r="A163" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="B163" s="24" t="s">
+      <c r="B163" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C163" s="24" t="s">
+      <c r="C163" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D163" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E163" s="24" t="s">
+      <c r="D163" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="22" t="s">
+    <row r="164" spans="1:5" ht="16">
+      <c r="A164" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="B164" s="24" t="s">
+      <c r="B164" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C164" s="24" t="s">
+      <c r="C164" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D164" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E164" s="24" t="s">
+      <c r="D164" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="22" t="s">
+    <row r="165" spans="1:5" ht="16">
+      <c r="A165" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="B165" s="24" t="s">
+      <c r="B165" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C165" s="24" t="s">
+      <c r="C165" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D165" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E165" s="24" t="s">
+      <c r="D165" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:5" ht="13">
       <c r="A166" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E166" s="26"/>
-    </row>
-    <row r="167">
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E166" s="10"/>
+    </row>
+    <row r="167" spans="1:5" ht="14">
       <c r="A167" s="10" t="s">
         <v>305</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C167" s="26"/>
-      <c r="D167" s="27" t="s">
+      <c r="C167" s="10"/>
+      <c r="D167" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E167" s="26"/>
-    </row>
-    <row r="168">
+      <c r="E167" s="10"/>
+    </row>
+    <row r="168" spans="1:5" ht="13">
       <c r="A168" s="10" t="s">
         <v>306</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C168" s="26"/>
-      <c r="D168" s="27" t="s">
+      <c r="C168" s="10"/>
+      <c r="D168" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E168" s="26"/>
-    </row>
-    <row r="169">
+      <c r="E168" s="10"/>
+    </row>
+    <row r="169" spans="1:5" ht="13">
       <c r="A169" s="10" t="s">
         <v>308</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C169" s="26"/>
-      <c r="D169" s="27" t="s">
+      <c r="C169" s="10"/>
+      <c r="D169" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E169" s="26"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="28" t="s">
+      <c r="E169" s="10"/>
+    </row>
+    <row r="170" spans="1:5" ht="14">
+      <c r="A170" s="16" t="s">
         <v>309</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C170" s="26"/>
-      <c r="D170" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E170" s="26"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="28" t="s">
+      <c r="C170" s="10"/>
+      <c r="D170" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E170" s="10"/>
+    </row>
+    <row r="171" spans="1:5" ht="14">
+      <c r="A171" s="16" t="s">
         <v>310</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C171" s="26"/>
-      <c r="D171" s="27" t="s">
+      <c r="C171" s="10"/>
+      <c r="D171" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E171" s="26"/>
-    </row>
-    <row r="172">
+      <c r="E171" s="10"/>
+    </row>
+    <row r="172" spans="1:5" ht="13">
       <c r="A172" s="10" t="s">
         <v>311</v>
       </c>
       <c r="B172" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C172" s="19"/>
-      <c r="D172" s="27" t="s">
+      <c r="C172" s="16"/>
+      <c r="D172" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E172" s="26"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="28" t="s">
+      <c r="E172" s="10"/>
+    </row>
+    <row r="173" spans="1:5" ht="16">
+      <c r="A173" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="B173" s="29" t="s">
+      <c r="B173" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="C173" s="26"/>
+      <c r="C173" s="10"/>
       <c r="D173" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E173" s="19"/>
-    </row>
-    <row r="174">
+      <c r="E173" s="16"/>
+    </row>
+    <row r="174" spans="1:5" ht="13">
       <c r="A174" s="10" t="s">
         <v>314</v>
       </c>
@@ -4707,1321 +5050,2192 @@
         <v>315</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5" ht="13">
       <c r="A175" s="10" t="s">
         <v>316</v>
       </c>
       <c r="B175" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C175" s="26"/>
+      <c r="C175" s="10"/>
       <c r="D175" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E175" s="26"/>
-    </row>
-    <row r="176">
+        <v>12</v>
+      </c>
+      <c r="E175" s="10"/>
+    </row>
+    <row r="176" spans="1:5" ht="13">
       <c r="A176" s="10" t="s">
         <v>318</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C176" s="26"/>
+      <c r="C176" s="10"/>
       <c r="D176" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E176" s="26"/>
-    </row>
-    <row r="177">
+        <v>12</v>
+      </c>
+      <c r="E176" s="10"/>
+    </row>
+    <row r="177" spans="1:5" ht="13">
       <c r="A177" s="10" t="s">
         <v>319</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C177" s="26"/>
+      <c r="C177" s="10"/>
       <c r="D177" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="26"/>
-    </row>
-    <row r="178">
+        <v>12</v>
+      </c>
+      <c r="E177" s="10"/>
+    </row>
+    <row r="178" spans="1:5" ht="13">
       <c r="A178" s="10" t="s">
         <v>320</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C178" s="26"/>
+      <c r="C178" s="10"/>
       <c r="D178" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="26"/>
-    </row>
-    <row r="179">
+        <v>12</v>
+      </c>
+      <c r="E178" s="10"/>
+    </row>
+    <row r="179" spans="1:5" ht="13">
       <c r="A179" s="10" t="s">
         <v>321</v>
       </c>
       <c r="B179" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C179" s="26"/>
+      <c r="C179" s="10"/>
       <c r="D179" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E179" s="26"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" s="10"/>
+    </row>
+    <row r="180" spans="1:5" ht="16">
+      <c r="A180" s="22" t="s">
         <v>231</v>
       </c>
       <c r="B180" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C180" s="26"/>
+      <c r="C180" s="10"/>
       <c r="D180" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E180" s="26"/>
-    </row>
-    <row r="181">
+        <v>12</v>
+      </c>
+      <c r="E180" s="10"/>
+    </row>
+    <row r="181" spans="1:5" ht="13">
       <c r="A181" s="10" t="s">
         <v>324</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C181" s="26"/>
+      <c r="C181" s="10"/>
       <c r="D181" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E181" s="26"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="10"/>
+    </row>
+    <row r="182" spans="1:5" ht="13">
+      <c r="A182" s="16" t="s">
         <v>326</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C182" s="26"/>
+      <c r="C182" s="10"/>
       <c r="D182" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E182" s="26"/>
-    </row>
-    <row r="183">
+        <v>12</v>
+      </c>
+      <c r="E182" s="10"/>
+    </row>
+    <row r="183" spans="1:5" ht="13">
       <c r="A183" s="10" t="s">
         <v>328</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C183" s="26"/>
+      <c r="C183" s="10"/>
       <c r="D183" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E183" s="26"/>
-    </row>
-    <row r="184">
+      <c r="E183" s="10"/>
+    </row>
+    <row r="184" spans="1:5" ht="13">
       <c r="A184" s="10" t="s">
         <v>329</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C184" s="26"/>
+      <c r="C184" s="10"/>
       <c r="D184" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E184" s="26"/>
-    </row>
-    <row r="185">
+      <c r="E184" s="10"/>
+    </row>
+    <row r="185" spans="1:5" ht="13">
       <c r="A185" s="10" t="s">
         <v>330</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C185" s="26"/>
+      <c r="C185" s="10"/>
       <c r="D185" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E185" s="26"/>
-    </row>
-    <row r="186">
+      <c r="E185" s="10"/>
+    </row>
+    <row r="186" spans="1:5" ht="13">
       <c r="A186" s="10" t="s">
         <v>332</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C186" s="26"/>
+      <c r="C186" s="10"/>
       <c r="D186" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E186" s="26"/>
-    </row>
-    <row r="187">
+      <c r="E186" s="10"/>
+    </row>
+    <row r="187" spans="1:5" ht="13">
       <c r="A187" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B187" s="26"/>
-      <c r="C187" s="26"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
       <c r="D187" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E187" s="26"/>
-    </row>
-    <row r="188">
+        <v>16</v>
+      </c>
+      <c r="E187" s="10"/>
+    </row>
+    <row r="188" spans="1:5" ht="13">
       <c r="A188" s="10" t="s">
         <v>251</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C188" s="26"/>
+      <c r="C188" s="10"/>
       <c r="D188" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E188" s="26"/>
-    </row>
-    <row r="189">
+      <c r="E188" s="10"/>
+    </row>
+    <row r="189" spans="1:5" ht="13">
       <c r="A189" s="10" t="s">
         <v>336</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C189" s="26"/>
+      <c r="C189" s="10"/>
       <c r="D189" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E189" s="26"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="28" t="s">
+      <c r="E189" s="10"/>
+    </row>
+    <row r="190" spans="1:5" ht="13">
+      <c r="A190" s="16" t="s">
         <v>337</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C190" s="26"/>
+      <c r="C190" s="10"/>
       <c r="D190" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E190" s="26"/>
-    </row>
-    <row r="191">
+      <c r="E190" s="10"/>
+    </row>
+    <row r="191" spans="1:5" ht="13">
       <c r="A191" s="10" t="s">
         <v>339</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C191" s="26"/>
+      <c r="C191" s="10"/>
       <c r="D191" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E191" s="26"/>
-    </row>
-    <row r="192">
+      <c r="E191" s="10"/>
+    </row>
+    <row r="192" spans="1:5" ht="13">
       <c r="A192" s="10" t="s">
         <v>341</v>
       </c>
       <c r="B192" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C192" s="26"/>
+      <c r="C192" s="10"/>
       <c r="D192" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E192" s="26"/>
-    </row>
-    <row r="193">
+      <c r="E192" s="10"/>
+    </row>
+    <row r="193" spans="1:5" ht="13">
       <c r="A193" s="10" t="s">
         <v>343</v>
       </c>
       <c r="B193" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C193" s="26"/>
+      <c r="C193" s="10"/>
       <c r="D193" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E193" s="26"/>
-    </row>
-    <row r="194">
+      <c r="E193" s="10"/>
+    </row>
+    <row r="194" spans="1:5" ht="13">
       <c r="A194" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C194" s="26"/>
+      <c r="C194" s="10"/>
       <c r="D194" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E194" s="26"/>
-    </row>
-    <row r="195">
+      <c r="E194" s="10"/>
+    </row>
+    <row r="195" spans="1:5" ht="13">
       <c r="A195" s="10" t="s">
         <v>347</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C195" s="26"/>
+      <c r="C195" s="10"/>
       <c r="D195" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E195" s="26"/>
-    </row>
-    <row r="196">
+      <c r="E195" s="10"/>
+    </row>
+    <row r="196" spans="1:5" ht="13">
       <c r="A196" s="10" t="s">
         <v>349</v>
       </c>
       <c r="B196" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C196" s="26"/>
+      <c r="C196" s="10"/>
       <c r="D196" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E196" s="26"/>
-    </row>
-    <row r="197">
+      <c r="E196" s="10"/>
+    </row>
+    <row r="197" spans="1:5" ht="13">
       <c r="A197" s="10" t="s">
         <v>350</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C197" s="26"/>
+      <c r="C197" s="10"/>
       <c r="D197" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E197" s="26"/>
-    </row>
-    <row r="198">
+      <c r="E197" s="10"/>
+    </row>
+    <row r="198" spans="1:5" ht="13">
       <c r="A198" s="10" t="s">
         <v>352</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C198" s="26"/>
+      <c r="C198" s="10"/>
       <c r="D198" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E198" s="26"/>
-    </row>
-    <row r="199">
+      <c r="E198" s="10"/>
+    </row>
+    <row r="199" spans="1:5" ht="13">
       <c r="A199" s="10" t="s">
         <v>354</v>
       </c>
       <c r="B199" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C199" s="26"/>
+      <c r="C199" s="10"/>
       <c r="D199" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E199" s="26"/>
-    </row>
-    <row r="200">
+      <c r="E199" s="10"/>
+    </row>
+    <row r="200" spans="1:5" ht="13">
       <c r="A200" s="10" t="s">
         <v>356</v>
       </c>
       <c r="B200" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C200" s="26"/>
+      <c r="C200" s="10"/>
       <c r="D200" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="26"/>
-    </row>
-    <row r="201">
+        <v>12</v>
+      </c>
+      <c r="E200" s="10"/>
+    </row>
+    <row r="201" spans="1:5" ht="13">
       <c r="A201" s="10" t="s">
         <v>357</v>
       </c>
       <c r="B201" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C201" s="26"/>
+      <c r="C201" s="10"/>
       <c r="D201" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E201" s="26"/>
-    </row>
-    <row r="202">
+        <v>12</v>
+      </c>
+      <c r="E201" s="10"/>
+    </row>
+    <row r="202" spans="1:5" ht="13">
       <c r="A202" s="10" t="s">
         <v>359</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C202" s="26"/>
+      <c r="C202" s="10"/>
       <c r="D202" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E202" s="26"/>
-    </row>
-    <row r="203">
+        <v>12</v>
+      </c>
+      <c r="E202" s="10"/>
+    </row>
+    <row r="203" spans="1:5" ht="13">
       <c r="A203" s="10" t="s">
         <v>360</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C203" s="26"/>
+      <c r="C203" s="10"/>
       <c r="D203" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E203" s="26"/>
-    </row>
-    <row r="204">
+        <v>12</v>
+      </c>
+      <c r="E203" s="10"/>
+    </row>
+    <row r="204" spans="1:5" ht="13">
       <c r="A204" s="10" t="s">
         <v>361</v>
       </c>
       <c r="B204" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C204" s="26"/>
+      <c r="C204" s="10"/>
       <c r="D204" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E204" s="26"/>
-    </row>
-    <row r="205">
+        <v>12</v>
+      </c>
+      <c r="E204" s="10"/>
+    </row>
+    <row r="205" spans="1:5" ht="13">
       <c r="A205" s="10" t="s">
         <v>363</v>
       </c>
       <c r="B205" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C205" s="26"/>
+      <c r="C205" s="10"/>
       <c r="D205" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E205" s="26"/>
-    </row>
-    <row r="206">
+        <v>12</v>
+      </c>
+      <c r="E205" s="10"/>
+    </row>
+    <row r="206" spans="1:5" ht="13">
       <c r="A206" s="10" t="s">
         <v>365</v>
       </c>
       <c r="B206" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C206" s="26"/>
+      <c r="C206" s="10"/>
       <c r="D206" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E206" s="26"/>
-    </row>
-    <row r="207">
+        <v>12</v>
+      </c>
+      <c r="E206" s="10"/>
+    </row>
+    <row r="207" spans="1:5" ht="13">
       <c r="A207" s="10" t="s">
         <v>367</v>
       </c>
       <c r="B207" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C207" s="26"/>
+      <c r="C207" s="10"/>
       <c r="D207" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E207" s="26"/>
-    </row>
-    <row r="208">
+        <v>12</v>
+      </c>
+      <c r="E207" s="10"/>
+    </row>
+    <row r="208" spans="1:5" ht="13">
       <c r="A208" s="10" t="s">
         <v>368</v>
       </c>
       <c r="B208" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C208" s="26"/>
+      <c r="C208" s="10"/>
       <c r="D208" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E208" s="26"/>
-    </row>
-    <row r="209">
+        <v>12</v>
+      </c>
+      <c r="E208" s="10"/>
+    </row>
+    <row r="209" spans="1:5" ht="13">
       <c r="A209" s="10" t="s">
         <v>370</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C209" s="26"/>
+      <c r="C209" s="10"/>
       <c r="D209" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E209" s="26"/>
-    </row>
-    <row r="210">
+        <v>12</v>
+      </c>
+      <c r="E209" s="10"/>
+    </row>
+    <row r="210" spans="1:5" ht="13">
       <c r="A210" s="10" t="s">
         <v>372</v>
       </c>
       <c r="B210" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C210" s="26"/>
+      <c r="C210" s="10"/>
       <c r="D210" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E210" s="26"/>
-    </row>
-    <row r="211">
+      <c r="E210" s="10"/>
+    </row>
+    <row r="211" spans="1:5" ht="13">
       <c r="A211" s="10" t="s">
         <v>373</v>
       </c>
       <c r="B211" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C211" s="26"/>
+      <c r="C211" s="10"/>
       <c r="D211" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E211" s="26"/>
-    </row>
-    <row r="212">
+      <c r="E211" s="10"/>
+    </row>
+    <row r="212" spans="1:5" ht="13">
       <c r="A212" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B212" s="28" t="s">
+      <c r="B212" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="C212" s="26"/>
+      <c r="C212" s="10"/>
       <c r="D212" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E212" s="26"/>
-    </row>
-    <row r="213">
+      <c r="E212" s="10"/>
+    </row>
+    <row r="213" spans="1:5" ht="13">
       <c r="A213" s="10" t="s">
         <v>376</v>
       </c>
       <c r="B213" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C213" s="26"/>
+      <c r="C213" s="10"/>
       <c r="D213" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E213" s="26"/>
-    </row>
-    <row r="214">
+      <c r="E213" s="10"/>
+    </row>
+    <row r="214" spans="1:5" ht="13">
       <c r="A214" s="10" t="s">
         <v>377</v>
       </c>
       <c r="B214" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C214" s="26"/>
+      <c r="C214" s="10"/>
       <c r="D214" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E214" s="26"/>
+      <c r="E214" s="10"/>
+    </row>
+    <row r="215" spans="1:5" ht="13">
+      <c r="A215" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E215" s="10"/>
+    </row>
+    <row r="216" spans="1:5" ht="13">
+      <c r="A216" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E216" s="10"/>
+    </row>
+    <row r="217" spans="1:5" ht="13">
+      <c r="A217" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217" s="10"/>
+    </row>
+    <row r="218" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A218" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E218" s="10"/>
+    </row>
+    <row r="219" spans="1:5" ht="13">
+      <c r="A219" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E219" s="10"/>
+    </row>
+    <row r="220" spans="1:5" ht="13">
+      <c r="A220" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E220" s="10"/>
+    </row>
+    <row r="221" spans="1:5" ht="13">
+      <c r="A221" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E221" s="10"/>
+    </row>
+    <row r="222" spans="1:5" ht="13">
+      <c r="A222" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E222" s="10"/>
+    </row>
+    <row r="223" spans="1:5" ht="13">
+      <c r="A223" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E223" s="10"/>
+    </row>
+    <row r="224" spans="1:5" ht="13">
+      <c r="A224" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E224" s="10"/>
+    </row>
+    <row r="225" spans="1:5" ht="13">
+      <c r="A225" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E225" s="10"/>
+    </row>
+    <row r="226" spans="1:5" ht="13">
+      <c r="A226" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E226" s="10"/>
+    </row>
+    <row r="227" spans="1:5" ht="13">
+      <c r="A227" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E227" s="10"/>
+    </row>
+    <row r="228" spans="1:5" ht="13">
+      <c r="A228" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E228" s="10"/>
+    </row>
+    <row r="229" spans="1:5" ht="15" customHeight="1">
+      <c r="A229" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E229" s="10"/>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A230" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E230" s="10"/>
+    </row>
+    <row r="231" spans="1:5" ht="13">
+      <c r="A231" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E231" s="10"/>
+    </row>
+    <row r="232" spans="1:5" ht="13">
+      <c r="A232" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E232" s="10"/>
+    </row>
+    <row r="233" spans="1:5" ht="13">
+      <c r="A233" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E233" s="10"/>
+    </row>
+    <row r="234" spans="1:5" ht="13">
+      <c r="A234" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E234" s="10"/>
+    </row>
+    <row r="235" spans="1:5" ht="13">
+      <c r="A235" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C235" s="10"/>
+      <c r="D235" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E235" s="10"/>
+    </row>
+    <row r="236" spans="1:5" ht="13">
+      <c r="A236" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C236" s="10"/>
+      <c r="D236" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E236" s="10"/>
+    </row>
+    <row r="237" spans="1:5" ht="13">
+      <c r="A237" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C237" s="10"/>
+      <c r="D237" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E237" s="10"/>
+    </row>
+    <row r="238" spans="1:5" ht="13">
+      <c r="A238" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E238" s="10"/>
+    </row>
+    <row r="239" spans="1:5" ht="13">
+      <c r="A239" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E239" s="10"/>
+    </row>
+    <row r="240" spans="1:5" ht="13">
+      <c r="A240" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E240" s="10"/>
+    </row>
+    <row r="241" spans="1:5" ht="13">
+      <c r="A241" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E241" s="10"/>
+    </row>
+    <row r="242" spans="1:5" ht="13">
+      <c r="A242" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C242" s="10"/>
+      <c r="D242" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E242" s="10"/>
+    </row>
+    <row r="243" spans="1:5" ht="13">
+      <c r="A243" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E243" s="10"/>
+    </row>
+    <row r="244" spans="1:5" ht="13">
+      <c r="A244" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C244" s="10"/>
+      <c r="D244" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E244" s="10"/>
+    </row>
+    <row r="245" spans="1:5" ht="13">
+      <c r="A245" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C245" s="10"/>
+      <c r="D245" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E245" s="10"/>
+    </row>
+    <row r="246" spans="1:5" ht="13">
+      <c r="A246" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D246" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="13">
+      <c r="A247" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D247" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="13">
+      <c r="A248" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D248" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="13">
+      <c r="A249" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D249" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="13">
+      <c r="A250" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="D250" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="13">
+      <c r="A251" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D251" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="13">
+      <c r="A252" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D252" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="13">
+      <c r="A253" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D253" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="13">
+      <c r="A254" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D254" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="13">
+      <c r="A255" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="D255" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="13">
+      <c r="A256" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="D256" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="13">
+      <c r="A257" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="D257" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="13">
+      <c r="A258" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D258" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="13">
+      <c r="A259" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D259" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="13">
+      <c r="A260" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D260" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="13">
+      <c r="A261" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D261" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="13">
+      <c r="A262" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="D262" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="13">
+      <c r="A263" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="D263" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="13">
+      <c r="A264" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D264" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="13">
+      <c r="A265" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D265" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="13">
+      <c r="A266" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D266" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="13">
+      <c r="A267" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D267" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="13">
+      <c r="A268" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B268" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="D268" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="13">
+      <c r="A269" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="D269" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="13">
+      <c r="A270" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D270" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="13">
+      <c r="A271" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="D271" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="13">
+      <c r="A272" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D272" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="13">
+      <c r="A273" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="B273" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D273" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="13">
+      <c r="A274" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D274" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="13">
+      <c r="A275" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="D275" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="13">
+      <c r="A276" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="D276" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="13">
+      <c r="A277" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D277" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="13">
+      <c r="A278" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="D278" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="13">
+      <c r="A279" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="D279" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="13">
+      <c r="A280" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D280" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="13">
+      <c r="A281" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D281" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="13">
+      <c r="A282" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D282" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="13">
+      <c r="A283" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D283" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="13">
+      <c r="A284" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D284" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="13">
+      <c r="A285" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D285" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="13">
+      <c r="A286" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D286" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="13">
+      <c r="A287" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D287" s="46" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$Y$214">
-    <sortState ref="A1:Y214">
-      <sortCondition ref="A1:A214"/>
-      <sortCondition descending="1" ref="B1:B214"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:E531">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <autoFilter ref="A1:Y287" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A2:E532">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$D2="YES"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:E531">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$D2="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="46.5"/>
-    <col customWidth="1" min="2" max="2" width="30.88"/>
-    <col customWidth="1" min="3" max="3" width="22.38"/>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="E2" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="35" t="s">
-        <v>385</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="E3" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="C5" s="34" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="C6" s="34" t="s">
+      <c r="D5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>391</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="41"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>396</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>396</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="40" t="s">
-        <v>399</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>396</v>
-      </c>
-      <c r="D10" s="42" t="s">
+      <c r="E6" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="43"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>396</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>396</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="40" t="s">
-        <v>403</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>396</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="44" t="s">
-        <v>404</v>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="35" t="s">
+        <v>530</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>405</v>
+        <v>531</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="B15" s="26"/>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>405</v>
+        <v>531</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="44" t="s">
-        <v>408</v>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="35" t="s">
+        <v>534</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>409</v>
+        <v>535</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>410</v>
+        <v>536</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>172</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="B17" s="26"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>413</v>
+        <v>539</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="44" t="s">
-        <v>414</v>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="35" t="s">
+        <v>540</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C18" s="26"/>
+        <v>541</v>
+      </c>
+      <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
         <v>172</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="44" t="s">
-        <v>417</v>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A19" s="35" t="s">
+        <v>543</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C19" s="26"/>
+        <v>544</v>
+      </c>
+      <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="45"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="45"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="45"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="45"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="45"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="45"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="45"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="45"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="45"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="45"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="45"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="45"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="45"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="45"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="45"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="45"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="45"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="45"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="45"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="45"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="45"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="45"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="45"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="45"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="45"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="45"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="45"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="45"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="45"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="45"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="45"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="45"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="45"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="45"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="45"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="45"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="45"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="45"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="45"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="45"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="45"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="45"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="45"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="45"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="45"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="45"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="45"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="45"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="45"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="45"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="45"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="45"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="45"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="45"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="45"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="45"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="45"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="45"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="45"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="45"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="45"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="45"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="45"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="45"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="45"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="45"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="45"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="45"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="45"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="45"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="45"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="45"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="45"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="45"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="45"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="45"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="45"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="45"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="45"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="45"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="45"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="45"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A20" s="35"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="35"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="35"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="35"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="35"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="35"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="35"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="35"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="35"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="35"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="35"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31" s="35"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="35"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A33" s="35"/>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A34" s="35"/>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A35" s="35"/>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A36" s="35"/>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A37" s="35"/>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A38" s="35"/>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A39" s="35"/>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A40" s="35"/>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A41" s="35"/>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A42" s="35"/>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A43" s="35"/>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A44" s="35"/>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A45" s="35"/>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A46" s="35"/>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A47" s="35"/>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A48" s="35"/>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A49" s="35"/>
+    </row>
+    <row r="50" spans="1:1" ht="14">
+      <c r="A50" s="35"/>
+    </row>
+    <row r="51" spans="1:1" ht="14">
+      <c r="A51" s="35"/>
+    </row>
+    <row r="52" spans="1:1" ht="14">
+      <c r="A52" s="35"/>
+    </row>
+    <row r="53" spans="1:1" ht="14">
+      <c r="A53" s="35"/>
+    </row>
+    <row r="54" spans="1:1" ht="14">
+      <c r="A54" s="35"/>
+    </row>
+    <row r="55" spans="1:1" ht="14">
+      <c r="A55" s="35"/>
+    </row>
+    <row r="56" spans="1:1" ht="14">
+      <c r="A56" s="35"/>
+    </row>
+    <row r="57" spans="1:1" ht="14">
+      <c r="A57" s="35"/>
+    </row>
+    <row r="58" spans="1:1" ht="14">
+      <c r="A58" s="35"/>
+    </row>
+    <row r="59" spans="1:1" ht="14">
+      <c r="A59" s="35"/>
+    </row>
+    <row r="60" spans="1:1" ht="14">
+      <c r="A60" s="35"/>
+    </row>
+    <row r="61" spans="1:1" ht="14">
+      <c r="A61" s="35"/>
+    </row>
+    <row r="62" spans="1:1" ht="14">
+      <c r="A62" s="35"/>
+    </row>
+    <row r="63" spans="1:1" ht="14">
+      <c r="A63" s="35"/>
+    </row>
+    <row r="64" spans="1:1" ht="14">
+      <c r="A64" s="35"/>
+    </row>
+    <row r="65" spans="1:1" ht="14">
+      <c r="A65" s="35"/>
+    </row>
+    <row r="66" spans="1:1" ht="14">
+      <c r="A66" s="35"/>
+    </row>
+    <row r="67" spans="1:1" ht="14">
+      <c r="A67" s="35"/>
+    </row>
+    <row r="68" spans="1:1" ht="14">
+      <c r="A68" s="35"/>
+    </row>
+    <row r="69" spans="1:1" ht="14">
+      <c r="A69" s="35"/>
+    </row>
+    <row r="70" spans="1:1" ht="14">
+      <c r="A70" s="35"/>
+    </row>
+    <row r="71" spans="1:1" ht="14">
+      <c r="A71" s="35"/>
+    </row>
+    <row r="72" spans="1:1" ht="14">
+      <c r="A72" s="35"/>
+    </row>
+    <row r="73" spans="1:1" ht="14">
+      <c r="A73" s="35"/>
+    </row>
+    <row r="74" spans="1:1" ht="14">
+      <c r="A74" s="35"/>
+    </row>
+    <row r="75" spans="1:1" ht="14">
+      <c r="A75" s="35"/>
+    </row>
+    <row r="76" spans="1:1" ht="14">
+      <c r="A76" s="35"/>
+    </row>
+    <row r="77" spans="1:1" ht="14">
+      <c r="A77" s="35"/>
+    </row>
+    <row r="78" spans="1:1" ht="14">
+      <c r="A78" s="35"/>
+    </row>
+    <row r="79" spans="1:1" ht="14">
+      <c r="A79" s="35"/>
+    </row>
+    <row r="80" spans="1:1" ht="14">
+      <c r="A80" s="35"/>
+    </row>
+    <row r="81" spans="1:1" ht="14">
+      <c r="A81" s="35"/>
+    </row>
+    <row r="82" spans="1:1" ht="14">
+      <c r="A82" s="35"/>
+    </row>
+    <row r="83" spans="1:1" ht="14">
+      <c r="A83" s="35"/>
+    </row>
+    <row r="84" spans="1:1" ht="14">
+      <c r="A84" s="35"/>
+    </row>
+    <row r="85" spans="1:1" ht="14">
+      <c r="A85" s="35"/>
+    </row>
+    <row r="86" spans="1:1" ht="14">
+      <c r="A86" s="35"/>
+    </row>
+    <row r="87" spans="1:1" ht="14">
+      <c r="A87" s="35"/>
+    </row>
+    <row r="88" spans="1:1" ht="14">
+      <c r="A88" s="35"/>
+    </row>
+    <row r="89" spans="1:1" ht="14">
+      <c r="A89" s="35"/>
+    </row>
+    <row r="90" spans="1:1" ht="14">
+      <c r="A90" s="35"/>
+    </row>
+    <row r="91" spans="1:1" ht="14">
+      <c r="A91" s="35"/>
+    </row>
+    <row r="92" spans="1:1" ht="14">
+      <c r="A92" s="35"/>
+    </row>
+    <row r="93" spans="1:1" ht="14">
+      <c r="A93" s="35"/>
+    </row>
+    <row r="94" spans="1:1" ht="14">
+      <c r="A94" s="35"/>
+    </row>
+    <row r="95" spans="1:1" ht="14">
+      <c r="A95" s="35"/>
+    </row>
+    <row r="96" spans="1:1" ht="14">
+      <c r="A96" s="35"/>
+    </row>
+    <row r="97" spans="1:1" ht="14">
+      <c r="A97" s="35"/>
+    </row>
+    <row r="98" spans="1:1" ht="14">
+      <c r="A98" s="35"/>
+    </row>
+    <row r="99" spans="1:1" ht="14">
+      <c r="A99" s="35"/>
+    </row>
+    <row r="100" spans="1:1" ht="14">
+      <c r="A100" s="35"/>
+    </row>
+    <row r="101" spans="1:1" ht="14">
+      <c r="A101" s="35"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E450">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$D2="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:E590">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$D2="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="69.25"/>
+    <col min="1" max="1" width="69.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="46" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="46" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="46" t="s">
-        <v>421</v>
-      </c>
-      <c r="B3" s="47"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="46"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="46" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="46" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="46" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="46" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="46" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="48" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="48" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="48" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="48" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="49"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="50" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="50" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="50" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="50" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="49"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="51"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="49"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="49"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="49"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="49"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="49"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="49"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="49"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="49"/>
-    </row>
-    <row r="44">
+    <row r="1" spans="1:6" ht="13">
+      <c r="A1" s="36" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13">
+      <c r="A2" s="36" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13">
+      <c r="A3" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:6" ht="13">
+      <c r="A4" s="36"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="1:6" ht="13">
+      <c r="A5" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+    </row>
+    <row r="6" spans="1:6" ht="13">
+      <c r="A6" s="36" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13">
+      <c r="A7" s="36" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13">
+      <c r="A8" s="36" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13">
+      <c r="A9" s="36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13">
+      <c r="A12" s="37" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13">
+      <c r="A13" s="37" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13">
+      <c r="A14" s="37" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13">
+      <c r="A15" s="37" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13">
+      <c r="A16" s="38"/>
+    </row>
+    <row r="20" spans="1:1" ht="13">
+      <c r="A20" s="39" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="13">
+      <c r="A21" s="39" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="13">
+      <c r="A22" s="39" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="13">
+      <c r="A23" s="39" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="13">
+      <c r="A24" s="39" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="13">
+      <c r="A31" s="38"/>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="40"/>
+    </row>
+    <row r="33" spans="1:2" ht="13">
+      <c r="A33" s="38"/>
+    </row>
+    <row r="34" spans="1:2" ht="13">
+      <c r="A34" s="38"/>
+    </row>
+    <row r="35" spans="1:2" ht="13">
+      <c r="A35" s="38"/>
+    </row>
+    <row r="36" spans="1:2" ht="13">
+      <c r="A36" s="38"/>
+    </row>
+    <row r="37" spans="1:2" ht="13">
+      <c r="A37" s="38"/>
+    </row>
+    <row r="38" spans="1:2" ht="13">
+      <c r="A38" s="38"/>
+    </row>
+    <row r="39" spans="1:2" ht="13">
+      <c r="A39" s="38"/>
+    </row>
+    <row r="40" spans="1:2" ht="13">
+      <c r="A40" s="38"/>
+    </row>
+    <row r="44" spans="1:2" ht="13">
       <c r="B44" s="10"/>
     </row>
-    <row r="45" ht="17.25" customHeight="1"/>
-    <row r="52">
-      <c r="A52" s="52"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="53"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="52"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="53"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="52"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="53"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="54"/>
+    <row r="45" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="52" spans="1:1" ht="14">
+      <c r="A52" s="41"/>
+    </row>
+    <row r="53" spans="1:1" ht="13">
+      <c r="A53" s="42"/>
+    </row>
+    <row r="54" spans="1:1" ht="14">
+      <c r="A54" s="41"/>
+    </row>
+    <row r="55" spans="1:1" ht="13">
+      <c r="A55" s="42"/>
+    </row>
+    <row r="56" spans="1:1" ht="14">
+      <c r="A56" s="41"/>
+    </row>
+    <row r="57" spans="1:1" ht="13">
+      <c r="A57" s="42"/>
+    </row>
+    <row r="58" spans="1:1" ht="15">
+      <c r="A58" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="customerReviews" ref="A20"/>
-    <hyperlink r:id="rId2" location="customerReviews" ref="A21"/>
-    <hyperlink r:id="rId3" ref="A22"/>
-    <hyperlink r:id="rId4" ref="A23"/>
-    <hyperlink r:id="rId5" location="customerReviews" ref="A24"/>
+    <hyperlink ref="A20" r:id="rId1" location="customerReviews" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A21" r:id="rId2" location="customerReviews" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A22" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A23" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A24" r:id="rId5" location="customerReviews" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>